--- a/Projeto/Qualidade/Checklist Qualidade.xlsx
+++ b/Projeto/Qualidade/Checklist Qualidade.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Clone\QualidadeSoftware\Projeto\Qualidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plano Cronograma" sheetId="3" r:id="rId1"/>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Projeto/Qualidade/Checklist Qualidade.xlsx
+++ b/Projeto/Qualidade/Checklist Qualidade.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Checklist de Requisitos</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>A estrutura do repositório que foi criada para o projeto reflete exatamente e estrutura definida no Plano de Gerencia de configuração</t>
-  </si>
-  <si>
-    <t>O padrão para a criação de Labels, Branches e nomes de arquivos estão sendo seguidos pelo projeto de acordo com o definido no Plano de Gerência de Configuração.</t>
   </si>
   <si>
     <t>O Plano de CM está atualizado.</t>
@@ -230,10 +227,10 @@
     <t>NÃO CONFORME</t>
   </si>
   <si>
-    <t>Não há Padrão de nomes de Arquivos no Plano de Gerencia de Configuração</t>
-  </si>
-  <si>
     <t>Uso de Ferramentas incompleto</t>
+  </si>
+  <si>
+    <t>Arquivos estão desorganizados entre as pastas</t>
   </si>
 </sst>
 </file>
@@ -873,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -904,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11"/>
       <c r="H4" s="15"/>
@@ -918,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -930,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
@@ -944,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -956,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -968,19 +965,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1040,7 +1037,7 @@
   <sheetData>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1065,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -1075,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -1085,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1095,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
@@ -1105,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -1115,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1125,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
@@ -1135,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -1145,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
@@ -1155,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1165,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -1175,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -1185,17 +1182,17 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1225,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1280,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1292,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -1306,40 +1303,28 @@
       <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1347,6 +1332,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1395,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1407,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1419,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1431,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1443,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1455,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1467,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1479,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1491,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1503,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1515,16 +1501,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto/Qualidade/Checklist Qualidade.xlsx
+++ b/Projeto/Qualidade/Checklist Qualidade.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Plano Cronograma" sheetId="3" r:id="rId1"/>
     <sheet name="Produto" sheetId="4" r:id="rId2"/>
-    <sheet name="Controle de Mudanças" sheetId="2" r:id="rId3"/>
+    <sheet name="Plano de Configuração" sheetId="2" r:id="rId3"/>
     <sheet name="Requisitos" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -857,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
